--- a/downloads/notebooks/sample_data/decline_curve.xlsx
+++ b/downloads/notebooks/sample_data/decline_curve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aegis\Documents\aegis4048.github.io-source\content\downloads\notebooks\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C47058-63BD-4F9F-9BD7-C852B96C0F63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4B8258-7B1E-4FD8-9838-FCA4B539B983}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>Oil Prod. (bopd)</t>
+  </si>
+  <si>
+    <t>gas</t>
   </si>
 </sst>
 </file>
@@ -518,12 +521,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -903,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -919,764 +920,1071 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
+        <v>40575</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>40603</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
         <v>40634</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B4">
+        <v>28192</v>
+      </c>
+      <c r="C4">
         <v>6788</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
         <v>40664</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B5">
+        <v>95460</v>
+      </c>
+      <c r="C5">
         <v>16935</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
         <v>40695</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B6">
+        <v>89672</v>
+      </c>
+      <c r="C6">
         <v>15040</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
         <v>40725</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B7">
+        <v>85225</v>
+      </c>
+      <c r="C7">
         <v>13677</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
         <v>40756</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B8">
+        <v>82411</v>
+      </c>
+      <c r="C8">
         <v>12159</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
         <v>40787</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B9">
+        <v>72383</v>
+      </c>
+      <c r="C9">
         <v>11057</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
         <v>40817</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B10">
+        <v>69267</v>
+      </c>
+      <c r="C10">
         <v>11137</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
         <v>40848</v>
       </c>
-      <c r="B9">
+      <c r="B11">
+        <v>57997</v>
+      </c>
+      <c r="C11">
         <v>8161</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
         <v>40878</v>
       </c>
-      <c r="B10">
+      <c r="B12">
+        <v>77273</v>
+      </c>
+      <c r="C12">
         <v>10911</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
         <v>40909</v>
       </c>
-      <c r="B11">
+      <c r="B13">
+        <v>64062</v>
+      </c>
+      <c r="C13">
         <v>9216</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
         <v>40940</v>
       </c>
-      <c r="B12">
+      <c r="B14">
+        <v>52923</v>
+      </c>
+      <c r="C14">
         <v>7475</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1">
         <v>40969</v>
       </c>
-      <c r="B13">
+      <c r="B15">
+        <v>48527</v>
+      </c>
+      <c r="C15">
         <v>6762</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
         <v>41000</v>
       </c>
-      <c r="B14">
+      <c r="B16">
+        <v>42869</v>
+      </c>
+      <c r="C16">
         <v>5834</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
         <v>41030</v>
       </c>
-      <c r="B15">
+      <c r="B17">
+        <v>40802</v>
+      </c>
+      <c r="C17">
         <v>4128</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1">
         <v>41061</v>
       </c>
-      <c r="B16">
+      <c r="B18">
+        <v>35185</v>
+      </c>
+      <c r="C18">
         <v>3205</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1">
         <v>41091</v>
       </c>
-      <c r="B17">
+      <c r="B19">
+        <v>35179</v>
+      </c>
+      <c r="C19">
         <v>4491</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1">
         <v>41122</v>
       </c>
-      <c r="B18">
+      <c r="B20">
+        <v>30956</v>
+      </c>
+      <c r="C20">
         <v>3399</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1">
         <v>41153</v>
       </c>
-      <c r="B19">
+      <c r="B21">
+        <v>25020</v>
+      </c>
+      <c r="C21">
         <v>3146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1">
         <v>41183</v>
       </c>
-      <c r="B20">
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1">
         <v>41214</v>
       </c>
-      <c r="B21">
+      <c r="B23">
+        <v>9031</v>
+      </c>
+      <c r="C23">
         <v>1562</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1">
         <v>41244</v>
       </c>
-      <c r="B22">
+      <c r="B24">
+        <v>19464</v>
+      </c>
+      <c r="C24">
         <v>3286</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1">
         <v>41275</v>
       </c>
-      <c r="B23">
+      <c r="B25">
+        <v>23558</v>
+      </c>
+      <c r="C25">
         <v>3892</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1">
         <v>41306</v>
       </c>
-      <c r="B24">
+      <c r="B26">
+        <v>15671</v>
+      </c>
+      <c r="C26">
         <v>3264</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1">
         <v>41334</v>
       </c>
-      <c r="B25">
+      <c r="B27">
+        <v>15455</v>
+      </c>
+      <c r="C27">
         <v>3005</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1">
         <v>41365</v>
       </c>
-      <c r="B26">
+      <c r="B28">
+        <v>11678</v>
+      </c>
+      <c r="C28">
         <v>1840</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1">
         <v>41395</v>
       </c>
-      <c r="B27">
+      <c r="B29">
+        <v>18852</v>
+      </c>
+      <c r="C29">
         <v>3122</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1">
         <v>41426</v>
       </c>
-      <c r="B28">
+      <c r="B30">
+        <v>19657</v>
+      </c>
+      <c r="C30">
         <v>3161</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1">
         <v>41456</v>
       </c>
-      <c r="B29">
+      <c r="B31">
+        <v>5295</v>
+      </c>
+      <c r="C31">
         <v>754</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1">
         <v>41487</v>
       </c>
-      <c r="B30">
+      <c r="B32">
+        <v>18360</v>
+      </c>
+      <c r="C32">
         <v>2471</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1">
         <v>41518</v>
       </c>
-      <c r="B31">
+      <c r="B33">
+        <v>10161</v>
+      </c>
+      <c r="C33">
         <v>1012</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1">
         <v>41548</v>
       </c>
-      <c r="B32">
+      <c r="B34">
+        <v>16375</v>
+      </c>
+      <c r="C34">
         <v>2569</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1">
         <v>41579</v>
       </c>
-      <c r="B33">
+      <c r="B35">
+        <v>10207</v>
+      </c>
+      <c r="C35">
         <v>1429</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1">
         <v>41609</v>
       </c>
-      <c r="B34">
+      <c r="B36">
+        <v>8313</v>
+      </c>
+      <c r="C36">
         <v>1038</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1">
         <v>41640</v>
       </c>
-      <c r="B35">
+      <c r="B37">
+        <v>548</v>
+      </c>
+      <c r="C37">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1">
         <v>41671</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1">
         <v>41699</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
+      <c r="B39">
+        <v>162</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1">
         <v>41730</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1">
         <v>41760</v>
       </c>
-      <c r="B39">
+      <c r="B41">
+        <v>1219</v>
+      </c>
+      <c r="C41">
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1">
         <v>41791</v>
       </c>
-      <c r="B40">
+      <c r="B42">
+        <v>65744</v>
+      </c>
+      <c r="C42">
         <v>13245</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1">
         <v>41821</v>
       </c>
-      <c r="B41">
+      <c r="B43">
+        <v>53668</v>
+      </c>
+      <c r="C43">
         <v>9953</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1">
         <v>41852</v>
       </c>
-      <c r="B42">
+      <c r="B44">
+        <v>11476</v>
+      </c>
+      <c r="C44">
         <v>2075</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1">
         <v>41883</v>
       </c>
-      <c r="B43">
+      <c r="B45">
+        <v>25200</v>
+      </c>
+      <c r="C45">
         <v>5088</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1">
         <v>41913</v>
       </c>
-      <c r="B44">
+      <c r="B46">
+        <v>33047</v>
+      </c>
+      <c r="C46">
         <v>6567</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1">
         <v>41944</v>
       </c>
-      <c r="B45">
+      <c r="B47">
+        <v>5313</v>
+      </c>
+      <c r="C47">
         <v>1048</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1">
         <v>41974</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1">
         <v>42005</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1">
         <v>42036</v>
       </c>
-      <c r="B48">
+      <c r="B50">
+        <v>1215</v>
+      </c>
+      <c r="C50">
         <v>434</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1">
         <v>42064</v>
       </c>
-      <c r="B49">
+      <c r="B51">
+        <v>4880</v>
+      </c>
+      <c r="C51">
         <v>1283</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1">
         <v>42095</v>
       </c>
-      <c r="B50">
+      <c r="B52">
+        <v>3419</v>
+      </c>
+      <c r="C52">
         <v>1172</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1">
         <v>42125</v>
       </c>
-      <c r="B51">
+      <c r="B53">
+        <v>4302</v>
+      </c>
+      <c r="C53">
         <v>1023</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1">
         <v>42156</v>
       </c>
-      <c r="B52">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
         <v>895</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1">
         <v>42186</v>
       </c>
-      <c r="B53">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
         <v>625</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1">
         <v>42217</v>
       </c>
-      <c r="B54">
+      <c r="B56">
+        <v>2928</v>
+      </c>
+      <c r="C56">
         <v>869</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1">
         <v>42248</v>
       </c>
-      <c r="B55">
+      <c r="B57">
+        <v>2377</v>
+      </c>
+      <c r="C57">
         <v>707</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1">
         <v>42278</v>
       </c>
-      <c r="B56">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
         <v>425</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1">
         <v>42309</v>
       </c>
-      <c r="B57">
+      <c r="B59">
+        <v>1153</v>
+      </c>
+      <c r="C59">
         <v>585</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1">
         <v>42339</v>
       </c>
-      <c r="B58">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
         <v>399</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1">
         <v>42370</v>
       </c>
-      <c r="B59">
+      <c r="B61">
+        <v>1529</v>
+      </c>
+      <c r="C61">
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1">
         <v>42401</v>
       </c>
-      <c r="B60">
+      <c r="B62">
+        <v>2681</v>
+      </c>
+      <c r="C62">
         <v>602</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1">
         <v>42430</v>
       </c>
-      <c r="B61">
+      <c r="B63">
+        <v>2574</v>
+      </c>
+      <c r="C63">
         <v>579</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1">
         <v>42461</v>
       </c>
-      <c r="B62">
+      <c r="B64">
+        <v>2406</v>
+      </c>
+      <c r="C64">
         <v>715</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1">
         <v>42491</v>
       </c>
-      <c r="B63">
+      <c r="B65">
+        <v>1885</v>
+      </c>
+      <c r="C65">
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1">
         <v>42522</v>
       </c>
-      <c r="B64">
+      <c r="B66">
+        <v>1821</v>
+      </c>
+      <c r="C66">
         <v>463</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1">
         <v>42552</v>
       </c>
-      <c r="B65">
+      <c r="B67">
+        <v>1460</v>
+      </c>
+      <c r="C67">
         <v>428</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1">
         <v>42583</v>
       </c>
-      <c r="B66">
+      <c r="B68">
+        <v>1505</v>
+      </c>
+      <c r="C68">
         <v>499</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1">
         <v>42614</v>
       </c>
-      <c r="B67">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
         <v>404</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1">
         <v>42644</v>
       </c>
-      <c r="B68">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1">
         <v>42675</v>
       </c>
-      <c r="B69">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
         <v>406</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1">
         <v>42705</v>
       </c>
-      <c r="B70">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1">
         <v>42736</v>
       </c>
-      <c r="B71">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1">
         <v>42767</v>
       </c>
-      <c r="B72">
+      <c r="B74">
+        <v>229</v>
+      </c>
+      <c r="C74">
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1">
         <v>42795</v>
       </c>
-      <c r="B73">
+      <c r="B75">
+        <v>671</v>
+      </c>
+      <c r="C75">
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1">
         <v>42826</v>
       </c>
-      <c r="B74">
+      <c r="B76">
+        <v>398</v>
+      </c>
+      <c r="C76">
         <v>330</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1">
         <v>42856</v>
       </c>
-      <c r="B75">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1">
         <v>42887</v>
       </c>
-      <c r="B76">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1">
         <v>42917</v>
       </c>
-      <c r="B77">
+      <c r="B79">
+        <v>673</v>
+      </c>
+      <c r="C79">
         <v>330</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1">
         <v>42948</v>
       </c>
-      <c r="B78">
+      <c r="B80">
+        <v>567</v>
+      </c>
+      <c r="C80">
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1">
         <v>42979</v>
       </c>
-      <c r="B79">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1">
         <v>43009</v>
       </c>
-      <c r="B80">
+      <c r="B82">
+        <v>375</v>
+      </c>
+      <c r="C82">
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1">
         <v>43040</v>
       </c>
-      <c r="B81">
+      <c r="B83">
+        <v>730</v>
+      </c>
+      <c r="C83">
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1">
         <v>43070</v>
       </c>
-      <c r="B82">
+      <c r="B84">
+        <v>860</v>
+      </c>
+      <c r="C84">
         <v>291</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1">
         <v>43101</v>
       </c>
-      <c r="B83">
+      <c r="B85">
+        <v>767</v>
+      </c>
+      <c r="C85">
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1">
         <v>43132</v>
       </c>
-      <c r="B84">
+      <c r="B86">
+        <v>1053</v>
+      </c>
+      <c r="C86">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1">
         <v>43160</v>
       </c>
-      <c r="B85">
+      <c r="B87">
+        <v>1453</v>
+      </c>
+      <c r="C87">
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1">
         <v>43191</v>
       </c>
-      <c r="B86">
+      <c r="B88">
+        <v>2127</v>
+      </c>
+      <c r="C88">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1">
         <v>43221</v>
       </c>
-      <c r="B87">
+      <c r="B89">
+        <v>2160</v>
+      </c>
+      <c r="C89">
         <v>284</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1">
         <v>43252</v>
       </c>
-      <c r="B88">
+      <c r="B90">
+        <v>1679</v>
+      </c>
+      <c r="C90">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1">
         <v>43282</v>
       </c>
-      <c r="B89">
+      <c r="B91">
+        <v>1403</v>
+      </c>
+      <c r="C91">
         <v>218</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1">
         <v>43313</v>
       </c>
-      <c r="B90">
+      <c r="B92">
+        <v>1183</v>
+      </c>
+      <c r="C92">
         <v>271</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1">
         <v>43344</v>
       </c>
-      <c r="B91">
+      <c r="B93">
+        <v>1403</v>
+      </c>
+      <c r="C93">
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1">
         <v>43374</v>
       </c>
-      <c r="B92">
+      <c r="B94">
+        <v>1537</v>
+      </c>
+      <c r="C94">
         <v>258</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1">
         <v>43405</v>
       </c>
-      <c r="B93">
+      <c r="B95">
+        <v>986</v>
+      </c>
+      <c r="C95">
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1">
         <v>43435</v>
       </c>
-      <c r="B94">
+      <c r="B96">
+        <v>1100</v>
+      </c>
+      <c r="C96">
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1">
         <v>43466</v>
       </c>
-      <c r="B95">
+      <c r="B97">
+        <v>1252</v>
+      </c>
+      <c r="C97">
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B96" s="3"/>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
